--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,30 +43,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,81 +85,81 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
   <si>
     <t>corona</t>
@@ -533,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,16 +617,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8013698630136986</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,7 +767,7 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.8660714285714286</v>
@@ -802,37 +796,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7297297297297297</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C7">
+        <v>108</v>
+      </c>
+      <c r="D7">
+        <v>108</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>312</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5686274509803921</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5608465608465608</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C9">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="D9">
-        <v>106</v>
+        <v>274</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>83</v>
+        <v>242</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.559322033898305</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,31 +964,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>25</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10">
+        <v>0.796875</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <v>102</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10">
-        <v>0.8297872340425532</v>
-      </c>
-      <c r="L10">
-        <v>39</v>
-      </c>
-      <c r="M10">
-        <v>39</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5368217054263565</v>
+        <v>0.4966442953020134</v>
       </c>
       <c r="C11">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>239</v>
+        <v>75</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5100671140939598</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1070,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1102,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.44</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C13">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>187</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13">
-        <v>33</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>42</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2817460317460317</v>
+        <v>0.1662198391420912</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1170,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>181</v>
+        <v>311</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1194,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1202,49 +1196,49 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1662198391420912</v>
+        <v>0.01548886737657309</v>
       </c>
       <c r="C15">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>311</v>
+        <v>3051</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.775</v>
+      </c>
+      <c r="L15">
+        <v>124</v>
+      </c>
+      <c r="M15">
+        <v>124</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>36</v>
-      </c>
-      <c r="K15">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L15">
-        <v>64</v>
-      </c>
-      <c r="M15">
-        <v>64</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1252,156 +1246,132 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01549386701097482</v>
+        <v>0.01308411214953271</v>
       </c>
       <c r="C16">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="F16">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>3050</v>
+        <v>2112</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7676056338028169</v>
+      </c>
+      <c r="L16">
+        <v>109</v>
+      </c>
+      <c r="M16">
+        <v>109</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K16">
-        <v>0.775</v>
-      </c>
-      <c r="L16">
-        <v>124</v>
-      </c>
-      <c r="M16">
-        <v>124</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.01404494382022472</v>
-      </c>
-      <c r="C17">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>37</v>
-      </c>
-      <c r="E17">
-        <v>0.19</v>
-      </c>
-      <c r="F17">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>2106</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K17">
-        <v>0.7586206896551724</v>
-      </c>
-      <c r="L17">
-        <v>44</v>
-      </c>
-      <c r="M17">
-        <v>44</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="K18">
+        <v>0.7441860465116279</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.75</v>
-      </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
-      <c r="M18">
-        <v>30</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L19">
-        <v>35</v>
-      </c>
-      <c r="M19">
-        <v>35</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="K20">
         <v>0.6825396825396826</v>
@@ -1425,18 +1395,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6744186046511628</v>
+        <v>0.65</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1451,290 +1421,264 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.6441176470588236</v>
+      </c>
+      <c r="L22">
+        <v>219</v>
+      </c>
+      <c r="M22">
+        <v>219</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K22">
-        <v>0.6352941176470588</v>
-      </c>
-      <c r="L22">
-        <v>216</v>
-      </c>
-      <c r="M22">
-        <v>216</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+      <c r="K23">
+        <v>0.6063829787234043</v>
+      </c>
+      <c r="L23">
+        <v>57</v>
+      </c>
+      <c r="M23">
+        <v>57</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>0.6</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>177</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>177</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K24">
-        <v>0.5899581589958159</v>
-      </c>
-      <c r="L24">
-        <v>141</v>
-      </c>
-      <c r="M24">
-        <v>141</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
+      <c r="K25">
+        <v>0.5815899581589958</v>
+      </c>
+      <c r="L25">
+        <v>139</v>
+      </c>
+      <c r="M25">
+        <v>139</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K25">
-        <v>0.5846153846153846</v>
-      </c>
-      <c r="L25">
+      <c r="K26">
+        <v>0.58</v>
+      </c>
+      <c r="L26">
+        <v>29</v>
+      </c>
+      <c r="M26">
+        <v>29</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.5692307692307692</v>
+      </c>
+      <c r="L27">
+        <v>37</v>
+      </c>
+      <c r="M27">
+        <v>37</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L28">
         <v>38</v>
       </c>
-      <c r="M25">
+      <c r="M28">
         <v>38</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26">
-        <v>0.5638297872340425</v>
-      </c>
-      <c r="L26">
-        <v>53</v>
-      </c>
-      <c r="M26">
-        <v>53</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.5056179775280899</v>
+      </c>
+      <c r="L29">
+        <v>45</v>
+      </c>
+      <c r="M29">
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>48</v>
       </c>
-      <c r="K27">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L27">
-        <v>28</v>
-      </c>
-      <c r="M27">
-        <v>28</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="L28">
-        <v>37</v>
-      </c>
-      <c r="M28">
-        <v>37</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K29">
-        <v>0.4831460674157304</v>
-      </c>
-      <c r="L29">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.01349654739485248</v>
+      </c>
+      <c r="L31">
         <v>43</v>
       </c>
-      <c r="M29">
-        <v>43</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30">
-        <v>0.3698630136986301</v>
-      </c>
-      <c r="L30">
-        <v>27</v>
-      </c>
-      <c r="M30">
-        <v>27</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.3205128205128205</v>
-      </c>
-      <c r="L31">
-        <v>25</v>
-      </c>
       <c r="M31">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32">
-        <v>0.01004394224733208</v>
-      </c>
-      <c r="L32">
-        <v>32</v>
-      </c>
-      <c r="M32">
-        <v>47</v>
-      </c>
-      <c r="N32">
-        <v>0.68</v>
-      </c>
-      <c r="O32">
-        <v>0.32</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3154</v>
+        <v>3143</v>
       </c>
     </row>
   </sheetData>
